--- a/rivals_performance.xlsx
+++ b/rivals_performance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nibo\Desktop\rootdesk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972CDC9-2435-4649-863B-7125085D5880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8522C4FB-21F2-42F7-AF24-E8DB75526419}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{404B58B6-0EA4-4CA0-87CC-8367D3CDFEB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{404B58B6-0EA4-4CA0-87CC-8367D3CDFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>公式ライバルパフォーマンス</t>
     <rPh sb="0" eb="2">
@@ -115,55 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2977位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1936位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1343位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1154位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1192位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1606位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1908位</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パフォ一位</t>
     <rPh sb="3" eb="5">
       <t>イチイ</t>
@@ -181,6 +133,10 @@
     <rPh sb="4" eb="6">
       <t>カイスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -313,6 +269,1172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.080314960629921E-2"/>
+          <c:y val="9.024314668999707E-2"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>にぼし(ぱふぉ）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84F2-4EE3-AF07-7F358C4C0D90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>まゆ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84F2-4EE3-AF07-7F358C4C0D90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>のき</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84F2-4EE3-AF07-7F358C4C0D90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>にーと</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-84F2-4EE3-AF07-7F358C4C0D90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2003482592"/>
+        <c:axId val="2129143136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2003482592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129143136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2129143136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003482592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996F3F40-BEF4-4845-B948-5F24932EB339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C70CFC-9E40-46BF-B221-82DE88E4A668}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -666,10 +1788,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
@@ -924,139 +2046,139 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
-        <v>43840</v>
+        <v>43807</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>20</v>
+      <c r="D8" s="4">
+        <v>739</v>
+      </c>
+      <c r="E8" s="6">
+        <v>739</v>
+      </c>
+      <c r="F8" s="8">
+        <v>715</v>
+      </c>
+      <c r="G8" s="8">
+        <v>539</v>
+      </c>
+      <c r="H8" s="10">
+        <v>884</v>
+      </c>
+      <c r="I8" s="10">
+        <v>490</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1046</v>
+      </c>
+      <c r="K8" s="12">
+        <v>505</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
-        <v>43828</v>
+        <v>43800</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1346</v>
+      </c>
+      <c r="E9" s="6">
+        <v>739</v>
+      </c>
+      <c r="F9" s="8">
+        <v>739</v>
+      </c>
+      <c r="G9" s="8">
+        <v>516</v>
+      </c>
+      <c r="H9" s="10">
+        <v>729</v>
+      </c>
+      <c r="I9" s="10">
+        <v>423</v>
+      </c>
+      <c r="J9" s="12">
+        <v>706</v>
+      </c>
+      <c r="K9" s="12">
+        <v>400</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
-        <v>43807</v>
+        <v>43765</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4">
-        <v>739</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6">
-        <v>739</v>
+        <v>437</v>
       </c>
       <c r="F10" s="8">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="G10" s="8">
-        <v>539</v>
+        <v>339</v>
       </c>
       <c r="H10" s="10">
-        <v>884</v>
+        <v>417</v>
       </c>
       <c r="I10" s="10">
-        <v>490</v>
+        <v>211</v>
       </c>
       <c r="J10" s="12">
-        <v>1046</v>
+        <v>616</v>
       </c>
       <c r="K10" s="12">
-        <v>505</v>
+        <v>228</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
-        <v>43800</v>
+        <v>43757</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4">
-        <v>1346</v>
+        <v>1030</v>
       </c>
       <c r="E11" s="6">
-        <v>739</v>
+        <v>502</v>
       </c>
       <c r="F11" s="8">
-        <v>739</v>
+        <v>666</v>
       </c>
       <c r="G11" s="8">
-        <v>516</v>
+        <v>289</v>
       </c>
       <c r="H11" s="10">
-        <v>729</v>
+        <v>634</v>
       </c>
       <c r="I11" s="10">
-        <v>423</v>
+        <v>186</v>
       </c>
       <c r="J11" s="12">
-        <v>706</v>
+        <v>868</v>
       </c>
       <c r="K11" s="12">
-        <v>400</v>
+        <v>179</v>
       </c>
       <c r="L11" t="s">
         <v>2</v>
@@ -1064,174 +2186,174 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
-        <v>43765</v>
+        <v>43743</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
-        <v>88</v>
+        <v>745</v>
       </c>
       <c r="E12" s="6">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="F12" s="8">
-        <v>736</v>
+        <v>273</v>
       </c>
       <c r="G12" s="8">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="H12" s="10">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="I12" s="10">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="J12" s="12">
-        <v>616</v>
+        <v>273</v>
       </c>
       <c r="K12" s="12">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
-        <v>43757</v>
+        <v>43736</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>1030</v>
+        <v>498</v>
       </c>
       <c r="E13" s="6">
-        <v>502</v>
+        <v>356</v>
       </c>
       <c r="F13" s="8">
-        <v>666</v>
+        <v>228</v>
       </c>
       <c r="G13" s="8">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="H13" s="10">
-        <v>634</v>
+        <v>547</v>
       </c>
       <c r="I13" s="10">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="J13" s="12">
-        <v>868</v>
+        <v>106</v>
       </c>
       <c r="K13" s="12">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
-        <v>43743</v>
+        <v>43715</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
-        <v>745</v>
+        <v>268</v>
       </c>
       <c r="E14" s="6">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="F14" s="8">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="G14" s="8">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="H14" s="10">
-        <v>273</v>
+        <v>468</v>
       </c>
       <c r="I14" s="10">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="J14" s="12">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="K14" s="12">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
-        <v>43736</v>
+        <v>43709</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
-        <v>498</v>
+        <v>622</v>
       </c>
       <c r="E15" s="6">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="F15" s="8">
-        <v>228</v>
+        <v>633</v>
       </c>
       <c r="G15" s="8">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="H15" s="10">
-        <v>547</v>
+        <v>132</v>
       </c>
       <c r="I15" s="10">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="J15" s="12">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K15" s="12">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
-        <v>43715</v>
+        <v>43840</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>268</v>
-      </c>
-      <c r="E16" s="6">
-        <v>209</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F16" s="8">
-        <v>250</v>
-      </c>
-      <c r="G16" s="8">
-        <v>196</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="10">
-        <v>468</v>
-      </c>
-      <c r="I16" s="10">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="12">
-        <v>418</v>
-      </c>
-      <c r="K16" s="12">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
@@ -1239,37 +2361,37 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
-        <v>43709</v>
+        <v>43828</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4">
-        <v>622</v>
-      </c>
-      <c r="E17" s="6">
-        <v>203</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="8">
-        <v>633</v>
-      </c>
-      <c r="G17" s="8">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="10">
-        <v>132</v>
-      </c>
-      <c r="I17" s="10">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="J17" s="12">
-        <v>143</v>
-      </c>
-      <c r="K17" s="12">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1277,4 +2399,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5C4BEC-5382-44C0-BA9A-24DADA243B78}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>